--- a/tests/testthat/Esempio_foglio_di_dati_M1.xlsx
+++ b/tests/testthat/Esempio_foglio_di_dati_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6543C10F-D397-4E16-B4A4-E954776CE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440F098-7A35-45CA-8DB7-0C1991FAC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11445,12 +11445,6 @@
       <c r="F196" t="s">
         <v>49</v>
       </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>5</v>
-      </c>
       <c r="I196">
         <v>100</v>
       </c>
@@ -13300,12 +13294,6 @@
       <c r="F231" t="s">
         <v>49</v>
       </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>5</v>
-      </c>
       <c r="I231">
         <v>100</v>
       </c>
@@ -14625,12 +14613,6 @@
       <c r="F256" t="s">
         <v>49</v>
       </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>5</v>
-      </c>
       <c r="I256">
         <v>100</v>
       </c>
@@ -14678,12 +14660,6 @@
       <c r="F257" t="s">
         <v>49</v>
       </c>
-      <c r="G257">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>5</v>
-      </c>
       <c r="I257">
         <v>100</v>
       </c>
@@ -16109,12 +16085,6 @@
       <c r="F284" t="s">
         <v>51</v>
       </c>
-      <c r="G284">
-        <v>5</v>
-      </c>
-      <c r="H284">
-        <v>5</v>
-      </c>
       <c r="I284">
         <v>100</v>
       </c>
@@ -16252,7 +16222,7 @@
   </sheetData>
   <autoFilter ref="A1:W161" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W286">
-      <sortCondition ref="F1:F161"/>
+      <sortCondition ref="A1:A161"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testthat/Esempio_foglio_di_dati_M1.xlsx
+++ b/tests/testthat/Esempio_foglio_di_dati_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3440F098-7A35-45CA-8DB7-0C1991FAC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24C6DA-7EE4-4419-BF7C-15D3CDC28C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>Assistente di direzione</t>
-  </si>
-  <si>
-    <t>Capo settore, membro della direzione</t>
   </si>
   <si>
     <t>Addetto/a alla reception</t>
@@ -1797,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -2486,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2539,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2645,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -2857,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -2910,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -3122,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -3334,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3652,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3758,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -3811,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -4500,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>7</v>
@@ -5083,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -5295,7 +5292,7 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>7</v>
@@ -5348,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>6</v>
@@ -5401,7 +5398,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -5666,7 +5663,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -5772,7 +5769,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>6</v>
@@ -5878,7 +5875,7 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -5984,7 +5981,7 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -6037,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -6090,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -6196,7 +6193,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>7</v>
@@ -6408,7 +6405,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -6514,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -6726,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>7</v>
@@ -7521,7 +7518,7 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122">
         <v>4</v>
@@ -7680,7 +7677,7 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>5</v>
@@ -7786,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -8104,7 +8101,7 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -8634,7 +8631,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -8740,7 +8737,7 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G145">
         <v>6</v>
@@ -9111,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -9853,7 +9850,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>7</v>
@@ -9959,7 +9956,7 @@
         <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>7</v>
@@ -10065,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>6</v>
@@ -10277,7 +10274,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G174">
         <v>7</v>
@@ -10330,7 +10327,7 @@
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -10489,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -11125,7 +11122,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>7</v>
@@ -11443,7 +11440,7 @@
         <v>8</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I196">
         <v>100</v>
@@ -11490,7 +11487,7 @@
         <v>8</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -11808,7 +11805,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G203">
         <v>5</v>
@@ -12020,7 +12017,7 @@
         <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G207">
         <v>6</v>
@@ -12126,7 +12123,7 @@
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -12285,7 +12282,7 @@
         <v>6</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -12497,7 +12494,7 @@
         <v>8</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G216">
         <v>7</v>
@@ -12762,7 +12759,7 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>4</v>
@@ -12868,7 +12865,7 @@
         <v>6</v>
       </c>
       <c r="F223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G223">
         <v>6</v>
@@ -12921,7 +12918,7 @@
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G224">
         <v>6</v>
@@ -13027,7 +13024,7 @@
         <v>8</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>7</v>
@@ -13133,7 +13130,7 @@
         <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>4</v>
@@ -13292,7 +13289,7 @@
         <v>8</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231">
         <v>100</v>
@@ -13710,7 +13707,7 @@
         <v>6</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G239">
         <v>4</v>
@@ -13763,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -13816,7 +13813,7 @@
         <v>3</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G241">
         <v>4</v>
@@ -13869,7 +13866,7 @@
         <v>6</v>
       </c>
       <c r="F242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G242">
         <v>6</v>
@@ -14081,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -14134,7 +14131,7 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G247">
         <v>7</v>
@@ -14187,7 +14184,7 @@
         <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248">
         <v>4</v>
@@ -14452,7 +14449,7 @@
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G253">
         <v>5</v>
@@ -14611,7 +14608,7 @@
         <v>8</v>
       </c>
       <c r="F256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I256">
         <v>100</v>
@@ -14658,7 +14655,7 @@
         <v>8</v>
       </c>
       <c r="F257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I257">
         <v>100</v>
@@ -15076,7 +15073,7 @@
         <v>6</v>
       </c>
       <c r="F265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G265">
         <v>5</v>
@@ -15129,7 +15126,7 @@
         <v>6</v>
       </c>
       <c r="F266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G266">
         <v>6</v>
@@ -15235,7 +15232,7 @@
         <v>6</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G268">
         <v>4</v>
@@ -15447,7 +15444,7 @@
         <v>6</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G272">
         <v>4</v>
@@ -15871,7 +15868,7 @@
         <v>6</v>
       </c>
       <c r="F280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G280">
         <v>6</v>
@@ -15977,7 +15974,7 @@
         <v>6</v>
       </c>
       <c r="F282" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G282">
         <v>6</v>
@@ -16083,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I284">
         <v>100</v>
@@ -16183,7 +16180,7 @@
         <v>6</v>
       </c>
       <c r="F286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G286">
         <v>6</v>
